--- a/pred_ohlcv/54_21/2019-10-16 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 HYC ohlcv.xlsx
@@ -8920,7 +8920,7 @@
         <v>-23847401.43601386</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-24267262.33361387</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-23077725.40651386</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-23087392.12701386</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-23404968.77445704</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-23403846.77445704</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-23403846.77445704</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-23218795.10265705</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-23245370.15995705</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-23245370.15995705</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-23245592.15995705</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-24613977.25085706</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-24613866.25085706</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-24613916.71815706</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-24613815.71815706</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-24613905.71815706</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-24613875.71815706</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-24613853.71815706</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-24613726.81035706</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-24461749.95595706</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-25522234.65365706</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-17507512.22975706</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-11644826.00515706</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-8453422.965857064</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4337426.56601145</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>201900.0093885502</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>9246131.050912226</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>8572845.787512226</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>8762481.786759708</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>8475716.263859708</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 HYC ohlcv.xlsx
@@ -9206,7 +9206,7 @@
         <v>-24290308.46691386</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-24267262.33361387</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-23077725.40651386</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-23087392.12701386</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-23404968.77445704</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-23403846.77445704</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-23404357.77445704</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-23218795.10265705</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-23057939.60395705</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-23057912.87955705</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-25197790.65365706</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-17507512.22975706</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-15200816.25445706</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-11644826.00515706</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-8453422.965857064</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4337426.56601145</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>201900.0093885502</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>10698836.84897047</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>6046091.051070473</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>6279007.965370473</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>8205128.542712226</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>8205128.542712226</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>9246131.050912226</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>8572845.787512226</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>8762481.786759708</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>8475716.263859708</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
